--- a/excel/class_notes/what-if/solver.xlsx
+++ b/excel/class_notes/what-if/solver.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilip Jha\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView windowWidth="19200" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,10 +44,18 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">2000</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -64,81 +67,81 @@
     <t>EXCEL SOLVER</t>
   </si>
   <si>
+    <t>Units Sold</t>
+  </si>
+  <si>
+    <t>Price Per Unit</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>$B$3</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Cost Per Unit</t>
+  </si>
+  <si>
+    <t>$B$4</t>
+  </si>
+  <si>
+    <t>&lt;=4</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
     <t>Subject</t>
   </si>
   <si>
+    <t>Out of</t>
+  </si>
+  <si>
     <t>Marks</t>
   </si>
   <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Eng</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>SSt</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Sanskrit</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>Eng</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>SSt</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>Out of</t>
-  </si>
-  <si>
-    <t>Sanskrit</t>
-  </si>
-  <si>
-    <t>Units Sold</t>
-  </si>
-  <si>
-    <t>Price Per Unit</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Cost Per Unit</t>
-  </si>
-  <si>
-    <t>Costs</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Constraint</t>
-  </si>
-  <si>
-    <t>$B$3</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>$B$4</t>
-  </si>
-  <si>
-    <t>&lt;=4</t>
-  </si>
-  <si>
-    <t>&gt;=3</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -181,29 +184,29 @@
     <t>Total budget should not exceed</t>
   </si>
   <si>
+    <t>Set objective</t>
+  </si>
+  <si>
+    <t>E36</t>
+  </si>
+  <si>
     <t>Extra costs sholud not exceed</t>
   </si>
   <si>
+    <t>value of</t>
+  </si>
+  <si>
     <t>Fixed costs need to remain at</t>
+  </si>
+  <si>
+    <t>by changing cells</t>
+  </si>
+  <si>
+    <t>d29:d35,b29:b35</t>
   </si>
   <si>
     <t>Total Project cost for each
  project should not exceed</t>
-  </si>
-  <si>
-    <t>Set objective</t>
-  </si>
-  <si>
-    <t>E36</t>
-  </si>
-  <si>
-    <t>value of</t>
-  </si>
-  <si>
-    <t>by changing cells</t>
-  </si>
-  <si>
-    <t>d29:d35,b29:b35</t>
   </si>
   <si>
     <t>Cell reference</t>
@@ -218,13 +221,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,11 +241,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +409,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -260,63 +606,349 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -365,7 +997,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -400,7 +1032,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -574,648 +1206,643 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.4272727272727" customWidth="1"/>
+    <col min="2" max="2" width="15.1363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.1363636363636" customWidth="1"/>
+    <col min="4" max="4" width="12.5727272727273" customWidth="1"/>
+    <col min="5" max="5" width="10.5727272727273" customWidth="1"/>
+    <col min="6" max="6" width="10.1363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>706.233350845093</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4.26021512548468</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <f>B3*B4</f>
+        <v>3008.70600339199</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.42829057533856</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:12">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <f>B3*B8</f>
+        <v>1008.70643900182</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:12">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B5-B9</f>
+        <v>1999.99956439017</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:12">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:12">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:12">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10">
-        <v>706.23335084509347</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="10">
-        <v>4.2602151254846774</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10">
-        <f>B3*B4</f>
-        <v>3008.7060033919943</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10">
-        <v>1.4282905753385635</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>100</v>
+      </c>
+      <c r="C18" s="8">
         <v>22</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10">
-        <f>B3*B8</f>
-        <v>1008.7064390018202</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="10">
-        <f>B5-B9</f>
-        <v>1999.9995643901741</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2">
-        <v>100</v>
-      </c>
-      <c r="C18" s="2">
-        <v>22</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="D18" s="9">
         <f>C18/100</f>
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
         <v>100</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="8">
         <v>0</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="9">
         <f t="shared" ref="D19:D24" si="0">C19/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
         <v>100</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="8">
         <v>0</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="F20" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
         <v>100</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="8">
         <v>23</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="9">
         <f t="shared" si="0"/>
         <v>0.23</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="8">
         <v>100</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="8">
         <v>20</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="9">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G22">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="2">
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="8">
         <v>100</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="8">
         <v>27</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="9">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
       <c r="F23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="13">
+        <v>16</v>
+      </c>
+      <c r="G23" s="11">
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="24" spans="1:4">
+      <c r="A24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8">
         <v>100</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="8">
         <v>0</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25" spans="1:4">
+      <c r="A25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="8">
         <f>SUM(B18:B24)</f>
         <v>700</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="8">
         <f>SUM(C18:C24)</f>
         <v>92</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="13">
         <f>C25/700</f>
-        <v>0.13142857142857142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+        <v>0.131428571428571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="8">
         <v>3400</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="8">
         <v>2000</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="8">
         <v>200</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="8">
         <f>SUM(B29:D29)</f>
         <v>5600</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="8">
         <v>3450</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="8">
         <v>2000</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="8">
         <v>300</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="8">
         <f t="shared" ref="E30:E36" si="1">SUM(B30:D30)</f>
         <v>5750</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="8">
         <v>3454</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="8">
         <v>2000</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="8">
         <v>350</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="8">
         <f t="shared" si="1"/>
         <v>5804</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="8">
         <v>4560</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="8">
         <v>2000</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="8">
         <v>400</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="8">
         <f t="shared" si="1"/>
         <v>6960</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="8">
         <v>4500</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="8">
         <v>2000</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="8">
         <v>500</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="8">
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="8">
         <v>5460</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="8">
         <v>2000</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="8">
         <v>250</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="8">
         <f t="shared" si="1"/>
         <v>7710</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="8">
         <v>3456</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="8">
         <v>2000</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="8">
         <v>300</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="8">
         <f t="shared" si="1"/>
         <v>5756</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5">
       <c r="D36" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="8">
         <f>SUM(E29:E35)</f>
         <v>44580</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="8">
         <v>50000</v>
       </c>
       <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="8">
+        <v>500</v>
+      </c>
+      <c r="D40" t="s">
         <v>43</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>500</v>
-      </c>
-      <c r="D40" t="s">
-        <v>45</v>
       </c>
       <c r="E40">
         <v>50000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="41" spans="1:5">
+      <c r="A41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="8">
         <v>2000</v>
       </c>
       <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
         <v>46</v>
       </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="42" ht="29" spans="1:5">
+      <c r="A42" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
+      <c r="B42" s="8">
         <v>8000</v>
       </c>
       <c r="D42" t="s">
@@ -1225,7 +1852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5">
       <c r="E43" t="s">
         <v>50</v>
       </c>
@@ -1235,5 +1862,6 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>